--- a/data/Measurement Channel List.xlsx
+++ b/data/Measurement Channel List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\arash\PHD\IEA Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\arash\PHD\IEA Projects\Annex\common exercise\artificial data\for participants\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -291,9 +291,6 @@
     <t>FPA805GTS; PT100; 4-wire</t>
   </si>
   <si>
-    <t>HeatPump_Tsup</t>
-  </si>
-  <si>
     <t>WS201809127_08</t>
   </si>
   <si>
@@ -1515,22 +1512,25 @@
     <t>Actual Heat Pump supply temperature</t>
   </si>
   <si>
-    <t>hp_supply_temp_command</t>
-  </si>
-  <si>
     <t>hp_el_cons</t>
   </si>
   <si>
     <t>Heat Pump electricity consumption</t>
   </si>
   <si>
-    <t>hp_status_command</t>
-  </si>
-  <si>
     <t>supply water temperature command applied to heat pump</t>
   </si>
   <si>
     <t>on/off command applied to heat pump</t>
+  </si>
+  <si>
+    <t>HeatPump_actual_Tsup</t>
+  </si>
+  <si>
+    <t>hp_status_command (u1)</t>
+  </si>
+  <si>
+    <t>hp_supply_temp_command (u2)</t>
   </si>
 </sst>
 </file>
@@ -2683,38 +2683,38 @@
   <dimension ref="A1:U147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.25" style="53" customWidth="1"/>
     <col min="8" max="8" width="37.75" style="53" customWidth="1"/>
     <col min="9" max="9" width="23.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="35.375" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
     <col min="16" max="16" width="14.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="41.58203125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" style="14" customWidth="1"/>
+    <col min="17" max="17" width="41.625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="26.375" style="14" customWidth="1"/>
     <col min="19" max="19" width="41.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.33203125" style="14" customWidth="1"/>
-    <col min="21" max="21" width="24.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.375" style="14" customWidth="1"/>
+    <col min="21" max="21" width="24.375" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>0</v>
@@ -2745,12 +2745,12 @@
       <c r="T1" s="5"/>
       <c r="U1" s="27"/>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="29">
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="30">
       <c r="A2" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>11</v>
@@ -2795,13 +2795,13 @@
         <v>5</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>475</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>46</v>
@@ -2818,7 +2818,7 @@
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
       <c r="E3" s="39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>17</v>
@@ -2827,15 +2827,15 @@
         <v>63</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="20"/>
       <c r="L3" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M3" s="26">
         <v>0.1</v>
@@ -2865,7 +2865,7 @@
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
       <c r="E4" s="39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>25</v>
@@ -2874,13 +2874,13 @@
         <v>63</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -2908,16 +2908,16 @@
       <c r="C5" s="19"/>
       <c r="D5" s="20"/>
       <c r="E5" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>63</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="20"/>
@@ -2943,7 +2943,7 @@
       <c r="C6" s="37"/>
       <c r="D6" s="36"/>
       <c r="E6" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>16</v>
@@ -2952,7 +2952,7 @@
         <v>63</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I6" s="41" t="s">
         <v>19</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M6" s="43" t="s">
         <v>23</v>
@@ -2992,7 +2992,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="36"/>
       <c r="E7" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>16</v>
@@ -3001,7 +3001,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I7" s="41" t="s">
         <v>19</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M7" s="43" t="s">
         <v>23</v>
@@ -3041,7 +3041,7 @@
       <c r="C8" s="37"/>
       <c r="D8" s="36"/>
       <c r="E8" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>16</v>
@@ -3050,7 +3050,7 @@
         <v>63</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I8" s="41" t="s">
         <v>19</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M8" s="43" t="s">
         <v>23</v>
@@ -3090,7 +3090,7 @@
       <c r="C9" s="37"/>
       <c r="D9" s="36"/>
       <c r="E9" s="39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>16</v>
@@ -3099,7 +3099,7 @@
         <v>63</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I9" s="41" t="s">
         <v>19</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M9" s="43" t="s">
         <v>23</v>
@@ -3139,7 +3139,7 @@
       <c r="C10" s="37"/>
       <c r="D10" s="36"/>
       <c r="E10" s="39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>16</v>
@@ -3148,7 +3148,7 @@
         <v>63</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I10" s="41" t="s">
         <v>19</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>23</v>
@@ -3188,7 +3188,7 @@
       <c r="C11" s="37"/>
       <c r="D11" s="36"/>
       <c r="E11" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>16</v>
@@ -3197,7 +3197,7 @@
         <v>63</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I11" s="41" t="s">
         <v>19</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M11" s="43" t="s">
         <v>23</v>
@@ -3237,7 +3237,7 @@
       <c r="C12" s="37"/>
       <c r="D12" s="36"/>
       <c r="E12" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>16</v>
@@ -3246,20 +3246,20 @@
         <v>63</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I12" s="41" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
@@ -3286,7 +3286,7 @@
       <c r="C13" s="37"/>
       <c r="D13" s="36"/>
       <c r="E13" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>17</v>
@@ -3295,7 +3295,7 @@
         <v>63</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="36"/>
@@ -3321,7 +3321,7 @@
       <c r="C14" s="37"/>
       <c r="D14" s="36"/>
       <c r="E14" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>16</v>
@@ -3330,20 +3330,20 @@
         <v>63</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I14" s="41" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -3370,7 +3370,7 @@
       <c r="C15" s="37"/>
       <c r="D15" s="36"/>
       <c r="E15" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>17</v>
@@ -3379,7 +3379,7 @@
         <v>63</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="36"/>
@@ -3405,16 +3405,16 @@
       <c r="C16" s="37"/>
       <c r="D16" s="36"/>
       <c r="E16" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>63</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="36"/>
@@ -3440,16 +3440,16 @@
       <c r="C17" s="37"/>
       <c r="D17" s="36"/>
       <c r="E17" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="36"/>
@@ -3475,16 +3475,16 @@
       <c r="C18" s="37"/>
       <c r="D18" s="36"/>
       <c r="E18" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G18" s="52" t="s">
         <v>63</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="36"/>
@@ -3510,7 +3510,7 @@
       <c r="C19" s="37"/>
       <c r="D19" s="36"/>
       <c r="E19" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F19" s="40" t="s">
         <v>15</v>
@@ -3519,15 +3519,15 @@
         <v>63</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J19" s="41"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M19" s="47" t="s">
         <v>22</v>
@@ -3557,16 +3557,16 @@
       <c r="C20" s="37"/>
       <c r="D20" s="36"/>
       <c r="E20" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G20" s="52" t="s">
         <v>63</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="36"/>
@@ -3592,7 +3592,7 @@
       <c r="C21" s="37"/>
       <c r="D21" s="36"/>
       <c r="E21" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>17</v>
@@ -3601,7 +3601,7 @@
         <v>63</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I21" s="41" t="s">
         <v>20</v>
@@ -3609,7 +3609,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M21" s="48">
         <v>0.1</v>
@@ -3639,7 +3639,7 @@
       <c r="C22" s="37"/>
       <c r="D22" s="36"/>
       <c r="E22" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F22" s="40" t="s">
         <v>17</v>
@@ -3648,7 +3648,7 @@
         <v>63</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I22" s="41" t="s">
         <v>20</v>
@@ -3656,7 +3656,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M22" s="48">
         <v>0.1</v>
@@ -3686,7 +3686,7 @@
       <c r="C23" s="37"/>
       <c r="D23" s="36"/>
       <c r="E23" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>17</v>
@@ -3695,7 +3695,7 @@
         <v>63</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>20</v>
@@ -3703,7 +3703,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M23" s="48">
         <v>0.1</v>
@@ -3733,7 +3733,7 @@
       <c r="C24" s="37"/>
       <c r="D24" s="36"/>
       <c r="E24" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>17</v>
@@ -3742,7 +3742,7 @@
         <v>63</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>20</v>
@@ -3750,7 +3750,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M24" s="48">
         <v>0.1</v>
@@ -3770,7 +3770,7 @@
       <c r="T24" s="44"/>
       <c r="U24" s="45"/>
     </row>
-    <row r="25" spans="1:21" s="38" customFormat="1" ht="29">
+    <row r="25" spans="1:21" s="38" customFormat="1" ht="30">
       <c r="A25" s="36" t="s">
         <v>26</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="C25" s="37"/>
       <c r="D25" s="36"/>
       <c r="E25" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>14</v>
@@ -3789,7 +3789,7 @@
         <v>63</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I25" s="41" t="s">
         <v>18</v>
@@ -3827,7 +3827,7 @@
       <c r="C26" s="37"/>
       <c r="D26" s="36"/>
       <c r="E26" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F26" s="40" t="s">
         <v>13</v>
@@ -3836,7 +3836,7 @@
         <v>63</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I26" s="41" t="s">
         <v>18</v>
@@ -3872,13 +3872,13 @@
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H27" s="53" t="s">
         <v>28</v>
@@ -3893,16 +3893,16 @@
         <v>73</v>
       </c>
       <c r="L27" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N27" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>43</v>
@@ -3912,14 +3912,14 @@
         <v>O5_aroom_bath_010_AT</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S27" s="14" t="str">
         <f t="shared" ref="S27:S90" si="1">IF(ISBLANK(D27),"",CONCATENATE("N2_",$E27))</f>
         <v>N2_aroom_bath_010_AT</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -3930,13 +3930,13 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H28" s="53" t="s">
         <v>28</v>
@@ -3951,16 +3951,16 @@
         <v>73</v>
       </c>
       <c r="L28" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>43</v>
@@ -3970,14 +3970,14 @@
         <v>O5_aroom_bath_-10_AT</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S28" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bath_-10_AT</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3991,13 +3991,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H29" s="53" t="s">
         <v>28</v>
@@ -4012,16 +4012,16 @@
         <v>73</v>
       </c>
       <c r="L29" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>43</v>
@@ -4031,14 +4031,14 @@
         <v>O5_aroom_bath_110_AT</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S29" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bath_110_AT</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -4049,13 +4049,13 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H30" s="53" t="s">
         <v>32</v>
@@ -4070,16 +4070,16 @@
         <v>73</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>43</v>
@@ -4089,14 +4089,14 @@
         <v>O5_aroom_bath_110_GT</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S30" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bath_110_GT</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -4107,13 +4107,13 @@
         <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H31" s="54" t="s">
         <v>41</v>
@@ -4134,10 +4134,10 @@
         <v>40</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>43</v>
@@ -4165,13 +4165,13 @@
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H32" s="53" t="s">
         <v>28</v>
@@ -4186,16 +4186,16 @@
         <v>73</v>
       </c>
       <c r="L32" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N32" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>43</v>
@@ -4205,14 +4205,14 @@
         <v>O5_aroom_bath_170_AT</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S32" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bath_170_AT</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4226,22 +4226,22 @@
         <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H33" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>39</v>
@@ -4250,7 +4250,7 @@
         <v>43439</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>44</v>
@@ -4287,22 +4287,22 @@
         <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H34" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>39</v>
@@ -4311,7 +4311,7 @@
         <v>43439</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>44</v>
@@ -4345,13 +4345,13 @@
         <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H35" s="53" t="s">
         <v>28</v>
@@ -4366,16 +4366,16 @@
         <v>73</v>
       </c>
       <c r="L35" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N35" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>43</v>
@@ -4385,14 +4385,14 @@
         <v>O5_aroom_bed_010_AT</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S35" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bed_010_AT</v>
       </c>
       <c r="T35" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4403,13 +4403,13 @@
         <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="53" t="s">
         <v>28</v>
@@ -4424,16 +4424,16 @@
         <v>73</v>
       </c>
       <c r="L36" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N36" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>43</v>
@@ -4443,14 +4443,14 @@
         <v>O5_aroom_bed_-10_AT</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S36" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bed_-10_AT</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4464,13 +4464,13 @@
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>28</v>
@@ -4485,16 +4485,16 @@
         <v>73</v>
       </c>
       <c r="L37" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>43</v>
@@ -4504,14 +4504,14 @@
         <v>O5_aroom_bed_110_AT</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S37" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bed_110_AT</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4522,13 +4522,13 @@
         <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H38" s="53" t="s">
         <v>32</v>
@@ -4543,16 +4543,16 @@
         <v>73</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>43</v>
@@ -4562,14 +4562,14 @@
         <v>O5_aroom_bed_110_GT</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S38" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bed_110_GT</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4580,13 +4580,13 @@
         <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39" s="54" t="s">
         <v>41</v>
@@ -4607,10 +4607,10 @@
         <v>40</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>43</v>
@@ -4638,13 +4638,13 @@
         <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H40" s="53" t="s">
         <v>28</v>
@@ -4659,16 +4659,16 @@
         <v>73</v>
       </c>
       <c r="L40" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>43</v>
@@ -4678,14 +4678,14 @@
         <v>O5_aroom_bed_170_AT</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S40" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_bed_170_AT</v>
       </c>
       <c r="T40" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4699,22 +4699,22 @@
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>39</v>
@@ -4723,7 +4723,7 @@
         <v>43439</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>44</v>
@@ -4760,16 +4760,16 @@
         <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>41</v>
@@ -4799,13 +4799,13 @@
         <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H43" s="53" t="s">
         <v>28</v>
@@ -4820,16 +4820,16 @@
         <v>73</v>
       </c>
       <c r="L43" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>43</v>
@@ -4839,14 +4839,14 @@
         <v>O5_aroom_child1_010_AT</v>
       </c>
       <c r="R43" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S43" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child1_010_AT</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -4857,13 +4857,13 @@
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H44" s="53" t="s">
         <v>28</v>
@@ -4878,16 +4878,16 @@
         <v>73</v>
       </c>
       <c r="L44" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>43</v>
@@ -4897,14 +4897,14 @@
         <v>O5_aroom_child1_-10_AT</v>
       </c>
       <c r="R44" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S44" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child1_-10_AT</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -4918,13 +4918,13 @@
         <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H45" s="53" t="s">
         <v>28</v>
@@ -4939,16 +4939,16 @@
         <v>73</v>
       </c>
       <c r="L45" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N45" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>43</v>
@@ -4958,14 +4958,14 @@
         <v>O5_aroom_child1_110_AT</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S45" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child1_110_AT</v>
       </c>
       <c r="T45" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -4976,13 +4976,13 @@
         <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H46" s="53" t="s">
         <v>32</v>
@@ -4997,16 +4997,16 @@
         <v>73</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>43</v>
@@ -5016,14 +5016,14 @@
         <v>O5_aroom_child1_110_GT</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S46" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child1_110_GT</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -5034,13 +5034,13 @@
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H47" s="54" t="s">
         <v>41</v>
@@ -5061,10 +5061,10 @@
         <v>40</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>43</v>
@@ -5092,13 +5092,13 @@
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>28</v>
@@ -5113,16 +5113,16 @@
         <v>73</v>
       </c>
       <c r="L48" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N48" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>43</v>
@@ -5132,14 +5132,14 @@
         <v>O5_aroom_child1_170_AT</v>
       </c>
       <c r="R48" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S48" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child1_170_AT</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -5153,22 +5153,22 @@
         <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H49" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>39</v>
@@ -5177,7 +5177,7 @@
         <v>43439</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>44</v>
@@ -5214,16 +5214,16 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G50" s="53" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>41</v>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="1:20" ht="28">
+    <row r="51" spans="1:20" ht="28.5">
       <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
@@ -5256,22 +5256,22 @@
         <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="53" t="s">
+      <c r="H51" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="H51" s="54" t="s">
-        <v>471</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>41</v>
@@ -5298,13 +5298,13 @@
         <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H52" s="53" t="s">
         <v>28</v>
@@ -5319,16 +5319,16 @@
         <v>73</v>
       </c>
       <c r="L52" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N52" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>43</v>
@@ -5338,14 +5338,14 @@
         <v>O5_aroom_child2_010_AT</v>
       </c>
       <c r="R52" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S52" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child2_010_AT</v>
       </c>
       <c r="T52" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -5356,13 +5356,13 @@
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H53" s="53" t="s">
         <v>28</v>
@@ -5377,16 +5377,16 @@
         <v>73</v>
       </c>
       <c r="L53" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N53" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>43</v>
@@ -5396,14 +5396,14 @@
         <v>O5_aroom_child2_-10_AT</v>
       </c>
       <c r="R53" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S53" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child2_-10_AT</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -5417,13 +5417,13 @@
         <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H54" s="53" t="s">
         <v>28</v>
@@ -5438,16 +5438,16 @@
         <v>73</v>
       </c>
       <c r="L54" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N54" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>43</v>
@@ -5457,14 +5457,14 @@
         <v>O5_aroom_child2_110_AT</v>
       </c>
       <c r="R54" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S54" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child2_110_AT</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -5475,13 +5475,13 @@
         <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H55" s="53" t="s">
         <v>32</v>
@@ -5496,16 +5496,16 @@
         <v>73</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>43</v>
@@ -5515,14 +5515,14 @@
         <v>O5_aroom_child2_110_GT</v>
       </c>
       <c r="R55" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S55" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child2_110_GT</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -5533,13 +5533,13 @@
         <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H56" s="54" t="s">
         <v>41</v>
@@ -5560,10 +5560,10 @@
         <v>40</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>43</v>
@@ -5591,13 +5591,13 @@
         <v>26</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H57" s="53" t="s">
         <v>28</v>
@@ -5612,16 +5612,16 @@
         <v>73</v>
       </c>
       <c r="L57" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N57" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>43</v>
@@ -5631,14 +5631,14 @@
         <v>O5_aroom_child2_170_AT</v>
       </c>
       <c r="R57" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S57" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_child2_170_AT</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -5652,22 +5652,22 @@
         <v>26</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G58" s="55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H58" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I58" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>39</v>
@@ -5676,7 +5676,7 @@
         <v>43439</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>44</v>
@@ -5713,16 +5713,16 @@
         <v>26</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G59" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="H59" s="54" t="s">
         <v>467</v>
-      </c>
-      <c r="H59" s="54" t="s">
-        <v>468</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>41</v>
@@ -5752,13 +5752,13 @@
         <v>26</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H60" s="53" t="s">
         <v>28</v>
@@ -5773,16 +5773,16 @@
         <v>73</v>
       </c>
       <c r="L60" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N60" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>43</v>
@@ -5792,14 +5792,14 @@
         <v>O5_aroom_corridor_010_AT</v>
       </c>
       <c r="R60" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S60" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_corridor_010_AT</v>
       </c>
       <c r="T60" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -5810,13 +5810,13 @@
         <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H61" s="53" t="s">
         <v>28</v>
@@ -5831,16 +5831,16 @@
         <v>73</v>
       </c>
       <c r="L61" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N61" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>43</v>
@@ -5850,14 +5850,14 @@
         <v>O5_aroom_corridor_-10_AT</v>
       </c>
       <c r="R61" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S61" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_corridor_-10_AT</v>
       </c>
       <c r="T61" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -5871,13 +5871,13 @@
         <v>26</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>28</v>
@@ -5892,16 +5892,16 @@
         <v>73</v>
       </c>
       <c r="L62" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M62" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N62" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>43</v>
@@ -5911,14 +5911,14 @@
         <v>O5_aroom_corridor_110_AT</v>
       </c>
       <c r="R62" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S62" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_corridor_110_AT</v>
       </c>
       <c r="T62" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -5929,13 +5929,13 @@
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H63" s="53" t="s">
         <v>32</v>
@@ -5950,16 +5950,16 @@
         <v>73</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O63" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>43</v>
@@ -5969,14 +5969,14 @@
         <v>O5_aroom_corridor_110_GT</v>
       </c>
       <c r="R63" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S63" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_corridor_110_GT</v>
       </c>
       <c r="T63" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -5987,13 +5987,13 @@
         <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H64" s="54" t="s">
         <v>41</v>
@@ -6014,10 +6014,10 @@
         <v>40</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>43</v>
@@ -6045,13 +6045,13 @@
         <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H65" s="53" t="s">
         <v>28</v>
@@ -6066,16 +6066,16 @@
         <v>73</v>
       </c>
       <c r="L65" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N65" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>43</v>
@@ -6085,14 +6085,14 @@
         <v>O5_aroom_corridor_170_AT</v>
       </c>
       <c r="R65" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S65" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_corridor_170_AT</v>
       </c>
       <c r="T65" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -6106,22 +6106,22 @@
         <v>26</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H66" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>39</v>
@@ -6130,7 +6130,7 @@
         <v>43439</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>44</v>
@@ -6167,16 +6167,16 @@
         <v>26</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G67" s="53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H67" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>41</v>
@@ -6206,13 +6206,13 @@
         <v>26</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H68" s="53" t="s">
         <v>28</v>
@@ -6227,16 +6227,16 @@
         <v>73</v>
       </c>
       <c r="L68" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N68" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>43</v>
@@ -6246,14 +6246,14 @@
         <v>O5_aroom_dining_010_AT</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S68" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_dining_010_AT</v>
       </c>
       <c r="T68" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -6264,13 +6264,13 @@
         <v>26</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H69" s="53" t="s">
         <v>28</v>
@@ -6285,16 +6285,16 @@
         <v>73</v>
       </c>
       <c r="L69" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N69" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>43</v>
@@ -6304,14 +6304,14 @@
         <v>O5_aroom_dining_-10_AT</v>
       </c>
       <c r="R69" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S69" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_dining_-10_AT</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -6325,13 +6325,13 @@
         <v>26</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H70" s="53" t="s">
         <v>28</v>
@@ -6346,16 +6346,16 @@
         <v>73</v>
       </c>
       <c r="L70" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N70" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>43</v>
@@ -6365,14 +6365,14 @@
         <v>O5_aroom_dining_110_AT</v>
       </c>
       <c r="R70" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S70" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_dining_110_AT</v>
       </c>
       <c r="T70" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -6383,13 +6383,13 @@
         <v>26</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H71" s="53" t="s">
         <v>32</v>
@@ -6404,16 +6404,16 @@
         <v>73</v>
       </c>
       <c r="L71" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O71" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>43</v>
@@ -6423,14 +6423,14 @@
         <v>O5_aroom_dining_110_GT</v>
       </c>
       <c r="R71" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S71" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_dining_110_GT</v>
       </c>
       <c r="T71" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -6441,13 +6441,13 @@
         <v>26</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H72" s="54" t="s">
         <v>41</v>
@@ -6468,10 +6468,10 @@
         <v>40</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>43</v>
@@ -6499,13 +6499,13 @@
         <v>26</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H73" s="53" t="s">
         <v>28</v>
@@ -6520,16 +6520,16 @@
         <v>73</v>
       </c>
       <c r="L73" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N73" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>43</v>
@@ -6539,14 +6539,14 @@
         <v>O5_aroom_dining_170_AT</v>
       </c>
       <c r="R73" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S73" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_dining_170_AT</v>
       </c>
       <c r="T73" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -6560,22 +6560,22 @@
         <v>26</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G74" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H74" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I74" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>39</v>
@@ -6584,7 +6584,7 @@
         <v>43439</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>44</v>
@@ -6618,13 +6618,13 @@
         <v>26</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H75" s="53" t="s">
         <v>28</v>
@@ -6639,16 +6639,16 @@
         <v>73</v>
       </c>
       <c r="L75" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N75" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>43</v>
@@ -6658,14 +6658,14 @@
         <v>O5_aroom_doorway_010_AT</v>
       </c>
       <c r="R75" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S75" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_doorway_010_AT</v>
       </c>
       <c r="T75" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -6676,13 +6676,13 @@
         <v>26</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H76" s="53" t="s">
         <v>28</v>
@@ -6697,16 +6697,16 @@
         <v>73</v>
       </c>
       <c r="L76" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M76" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N76" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>43</v>
@@ -6716,14 +6716,14 @@
         <v>O5_aroom_doorway_-10_AT</v>
       </c>
       <c r="R76" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S76" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_doorway_-10_AT</v>
       </c>
       <c r="T76" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -6737,13 +6737,13 @@
         <v>26</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H77" s="53" t="s">
         <v>28</v>
@@ -6758,16 +6758,16 @@
         <v>73</v>
       </c>
       <c r="L77" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N77" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>43</v>
@@ -6777,14 +6777,14 @@
         <v>O5_aroom_doorway_110_AT</v>
       </c>
       <c r="R77" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S77" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_doorway_110_AT</v>
       </c>
       <c r="T77" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -6795,13 +6795,13 @@
         <v>26</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H78" s="53" t="s">
         <v>32</v>
@@ -6816,16 +6816,16 @@
         <v>73</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M78" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O78" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>43</v>
@@ -6835,14 +6835,14 @@
         <v>O5_aroom_doorway_110_GT</v>
       </c>
       <c r="R78" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S78" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_doorway_110_GT</v>
       </c>
       <c r="T78" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -6853,13 +6853,13 @@
         <v>26</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H79" s="54" t="s">
         <v>41</v>
@@ -6880,10 +6880,10 @@
         <v>40</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>43</v>
@@ -6911,13 +6911,13 @@
         <v>26</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H80" s="53" t="s">
         <v>28</v>
@@ -6932,16 +6932,16 @@
         <v>73</v>
       </c>
       <c r="L80" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N80" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>43</v>
@@ -6951,14 +6951,14 @@
         <v>O5_aroom_doorway_170_AT</v>
       </c>
       <c r="R80" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S80" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_doorway_170_AT</v>
       </c>
       <c r="T80" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6972,22 +6972,22 @@
         <v>26</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G81" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H81" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>39</v>
@@ -6996,7 +6996,7 @@
         <v>43439</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>44</v>
@@ -7030,13 +7030,13 @@
         <v>26</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H82" s="53" t="s">
         <v>28</v>
@@ -7051,16 +7051,16 @@
         <v>73</v>
       </c>
       <c r="L82" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M82" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N82" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>43</v>
@@ -7070,14 +7070,14 @@
         <v>O5_aroom_kitchen_010_AT</v>
       </c>
       <c r="R82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S82" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_kitchen_010_AT</v>
       </c>
       <c r="T82" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -7088,13 +7088,13 @@
         <v>26</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H83" s="53" t="s">
         <v>28</v>
@@ -7109,16 +7109,16 @@
         <v>73</v>
       </c>
       <c r="L83" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N83" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>43</v>
@@ -7128,14 +7128,14 @@
         <v>O5_aroom_kitchen_-10_AT</v>
       </c>
       <c r="R83" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S83" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_kitchen_-10_AT</v>
       </c>
       <c r="T83" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -7149,13 +7149,13 @@
         <v>26</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H84" s="53" t="s">
         <v>28</v>
@@ -7170,16 +7170,16 @@
         <v>73</v>
       </c>
       <c r="L84" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N84" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>43</v>
@@ -7189,14 +7189,14 @@
         <v>O5_aroom_kitchen_110_AT</v>
       </c>
       <c r="R84" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S84" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_kitchen_110_AT</v>
       </c>
       <c r="T84" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -7207,13 +7207,13 @@
         <v>26</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H85" s="53" t="s">
         <v>32</v>
@@ -7228,16 +7228,16 @@
         <v>73</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M85" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O85" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>43</v>
@@ -7247,14 +7247,14 @@
         <v>O5_aroom_kitchen_110_GT</v>
       </c>
       <c r="R85" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S85" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_kitchen_110_GT</v>
       </c>
       <c r="T85" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -7265,13 +7265,13 @@
         <v>26</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H86" s="54" t="s">
         <v>41</v>
@@ -7292,10 +7292,10 @@
         <v>40</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>43</v>
@@ -7323,13 +7323,13 @@
         <v>26</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G87" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H87" s="53" t="s">
         <v>28</v>
@@ -7344,16 +7344,16 @@
         <v>73</v>
       </c>
       <c r="L87" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M87" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N87" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>43</v>
@@ -7363,14 +7363,14 @@
         <v>O5_aroom_kitchen_170_AT</v>
       </c>
       <c r="R87" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S87" s="14" t="str">
         <f t="shared" si="1"/>
         <v>N2_aroom_kitchen_170_AT</v>
       </c>
       <c r="T87" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -7384,22 +7384,22 @@
         <v>26</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G88" s="55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H88" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I88" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>39</v>
@@ -7408,7 +7408,7 @@
         <v>43439</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>44</v>
@@ -7445,22 +7445,22 @@
         <v>26</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G89" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H89" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>39</v>
@@ -7469,7 +7469,7 @@
         <v>43439</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>44</v>
@@ -7495,7 +7495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="28">
+    <row r="90" spans="1:20" ht="28.5">
       <c r="A90" s="2" t="s">
         <v>26</v>
       </c>
@@ -7506,22 +7506,22 @@
         <v>26</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G90" s="53" t="s">
-        <v>473</v>
-      </c>
       <c r="H90" s="54" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>41</v>
@@ -7548,7 +7548,7 @@
         <v>26</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
@@ -7569,16 +7569,16 @@
         <v>73</v>
       </c>
       <c r="L91" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M91" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M91" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N91" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>43</v>
@@ -7588,14 +7588,14 @@
         <v>O5_aroom_living_010_AT</v>
       </c>
       <c r="R91" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S91" s="14" t="str">
         <f t="shared" ref="S91:S114" si="3">IF(ISBLANK(D91),"",CONCATENATE("N2_",$E91))</f>
         <v>N2_aroom_living_010_AT</v>
       </c>
       <c r="T91" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -7606,7 +7606,7 @@
         <v>26</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>17</v>
@@ -7627,16 +7627,16 @@
         <v>73</v>
       </c>
       <c r="L92" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M92" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N92" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>43</v>
@@ -7646,14 +7646,14 @@
         <v>O5_aroom_living_-10_AT</v>
       </c>
       <c r="R92" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S92" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_living_-10_AT</v>
       </c>
       <c r="T92" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -7667,7 +7667,7 @@
         <v>26</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>17</v>
@@ -7688,16 +7688,16 @@
         <v>73</v>
       </c>
       <c r="L93" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M93" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N93" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>43</v>
@@ -7707,14 +7707,14 @@
         <v>O5_aroom_living_110_AT</v>
       </c>
       <c r="R93" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S93" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_living_110_AT</v>
       </c>
       <c r="T93" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -7725,7 +7725,7 @@
         <v>26</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>17</v>
@@ -7746,16 +7746,16 @@
         <v>73</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O94" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>43</v>
@@ -7765,14 +7765,14 @@
         <v>O5_aroom_living_110_GT</v>
       </c>
       <c r="R94" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S94" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_living_110_GT</v>
       </c>
       <c r="T94" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -7783,7 +7783,7 @@
         <v>26</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>15</v>
@@ -7810,10 +7810,10 @@
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>43</v>
@@ -7841,7 +7841,7 @@
         <v>26</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>17</v>
@@ -7862,16 +7862,16 @@
         <v>73</v>
       </c>
       <c r="L96" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M96" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N96" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>43</v>
@@ -7881,14 +7881,14 @@
         <v>O5_aroom_living_170_AT</v>
       </c>
       <c r="R96" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S96" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_living_170_AT</v>
       </c>
       <c r="T96" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -7902,22 +7902,22 @@
         <v>26</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G97" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H97" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I97" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>39</v>
@@ -7926,7 +7926,7 @@
         <v>43439</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>44</v>
@@ -7963,16 +7963,16 @@
         <v>26</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G98" s="53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H98" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>41</v>
@@ -8002,22 +8002,22 @@
         <v>26</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G99" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H99" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I99" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="J99" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="J99" s="35" t="s">
-        <v>343</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>39</v>
@@ -8026,7 +8026,7 @@
         <v>43439</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>44</v>
@@ -8060,22 +8060,22 @@
         <v>26</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G100" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H100" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I100" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="J100" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="J100" s="35" t="s">
-        <v>343</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>39</v>
@@ -8084,7 +8084,7 @@
         <v>43439</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>44</v>
@@ -8118,22 +8118,22 @@
         <v>26</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G101" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H101" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I101" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="J101" s="35" t="s">
         <v>342</v>
-      </c>
-      <c r="J101" s="35" t="s">
-        <v>343</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>39</v>
@@ -8142,7 +8142,7 @@
         <v>43439</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>44</v>
@@ -8176,13 +8176,13 @@
         <v>26</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G102" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H102" s="53" t="s">
         <v>28</v>
@@ -8197,16 +8197,16 @@
         <v>73</v>
       </c>
       <c r="L102" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M102" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N102" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>43</v>
@@ -8216,14 +8216,14 @@
         <v>O5_aroom_stairs_010_AT</v>
       </c>
       <c r="R102" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S102" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_stairs_010_AT</v>
       </c>
       <c r="T102" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -8234,13 +8234,13 @@
         <v>26</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G103" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H103" s="53" t="s">
         <v>28</v>
@@ -8255,16 +8255,16 @@
         <v>73</v>
       </c>
       <c r="L103" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M103" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M103" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N103" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>43</v>
@@ -8274,14 +8274,14 @@
         <v>O5_aroom_stairs_-10_AT</v>
       </c>
       <c r="R103" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S103" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_stairs_-10_AT</v>
       </c>
       <c r="T103" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -8295,13 +8295,13 @@
         <v>26</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G104" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H104" s="53" t="s">
         <v>28</v>
@@ -8316,16 +8316,16 @@
         <v>73</v>
       </c>
       <c r="L104" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M104" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N104" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>43</v>
@@ -8335,14 +8335,14 @@
         <v>O5_aroom_stairs_110_AT</v>
       </c>
       <c r="R104" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S104" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_stairs_110_AT</v>
       </c>
       <c r="T104" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -8353,13 +8353,13 @@
         <v>26</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H105" s="53" t="s">
         <v>28</v>
@@ -8374,16 +8374,16 @@
         <v>73</v>
       </c>
       <c r="L105" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M105" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M105" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N105" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>43</v>
@@ -8393,14 +8393,14 @@
         <v>O5_aroom_stairs_170_AT</v>
       </c>
       <c r="R105" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S105" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_aroom_stairs_170_AT</v>
       </c>
       <c r="T105" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -8414,22 +8414,22 @@
         <v>26</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G106" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H106" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I106" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>39</v>
@@ -8438,7 +8438,7 @@
         <v>43439</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>44</v>
@@ -8475,7 +8475,7 @@
         <v>26</v>
       </c>
       <c r="E107" s="58" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>17</v>
@@ -8493,16 +8493,16 @@
         <v>73</v>
       </c>
       <c r="L107" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M107" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M107" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N107" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>43</v>
@@ -8512,14 +8512,14 @@
         <v>O5_cellar_285_AT</v>
       </c>
       <c r="R107" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S107" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_cellar_285_AT</v>
       </c>
       <c r="T107" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U107" s="30"/>
     </row>
@@ -8534,7 +8534,7 @@
         <v>26</v>
       </c>
       <c r="E108" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>17</v>
@@ -8552,16 +8552,16 @@
         <v>73</v>
       </c>
       <c r="L108" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="M108" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="M108" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N108" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>43</v>
@@ -8571,18 +8571,18 @@
         <v>O5_cellar_285_AT2</v>
       </c>
       <c r="R108" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S108" s="14" t="str">
         <f t="shared" si="3"/>
         <v>N2_cellar_285_AT2</v>
       </c>
       <c r="T108" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U108" s="30"/>
     </row>
-    <row r="109" spans="1:21" ht="28">
+    <row r="109" spans="1:21" ht="28.5">
       <c r="A109" s="2" t="s">
         <v>26</v>
       </c>
@@ -8593,13 +8593,13 @@
         <v>26</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>19</v>
@@ -8617,10 +8617,10 @@
         <v>23</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>43</v>
@@ -8642,10 +8642,10 @@
     </row>
     <row r="110" spans="1:21">
       <c r="E110" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G110" s="53" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I110" s="12"/>
       <c r="K110" s="12"/>
@@ -8655,10 +8655,10 @@
     </row>
     <row r="111" spans="1:21">
       <c r="E111" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I111" s="12"/>
       <c r="K111" s="12"/>
@@ -8671,19 +8671,19 @@
         <v>26</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G112" s="53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H112" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>72</v>
@@ -8692,16 +8692,16 @@
         <v>73</v>
       </c>
       <c r="L112" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M112" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O112" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>43</v>
@@ -8711,7 +8711,7 @@
         <v>O5_hp_el_cons</v>
       </c>
       <c r="R112" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S112" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8727,22 +8727,22 @@
         <v>26</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>487</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G113" s="53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H113" s="54" t="s">
         <v>41</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>72</v>
@@ -8751,26 +8751,26 @@
         <v>73</v>
       </c>
       <c r="L113" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M113" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O113" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q113" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>O5_HeatPump_Tsup</v>
+        <v>O5_HeatPump_actual_Tsup</v>
       </c>
       <c r="R113" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S113" s="14" t="str">
         <f t="shared" si="3"/>
@@ -8789,37 +8789,37 @@
         <v>26</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G114" s="53" t="s">
-        <v>304</v>
-      </c>
       <c r="H114" s="53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J114" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O114" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M114" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>43</v>
@@ -8838,13 +8838,13 @@
         <v>26</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G115" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H115" s="53" t="s">
         <v>47</v>
@@ -8891,16 +8891,16 @@
         <v>26</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G116" s="53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H116" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>41</v>
@@ -8944,13 +8944,13 @@
         <v>26</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G117" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H117" s="53" t="s">
         <v>47</v>
@@ -8997,16 +8997,16 @@
         <v>26</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G118" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H118" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>41</v>
@@ -9050,13 +9050,13 @@
         <v>26</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G119" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H119" s="54" t="s">
         <v>41</v>
@@ -9071,16 +9071,16 @@
         <v>73</v>
       </c>
       <c r="L119" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M119" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O119" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>43</v>
@@ -9090,7 +9090,7 @@
         <v>O5_Vent_afterIHS_AT</v>
       </c>
       <c r="R119" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S119" s="14" t="str">
         <f t="shared" si="5"/>
@@ -9109,11 +9109,11 @@
         <v>15</v>
       </c>
       <c r="G120" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H120" s="54"/>
       <c r="I120" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>37</v>
@@ -9128,10 +9128,10 @@
         <v>40</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>43</v>
@@ -9163,7 +9163,7 @@
         <v>17</v>
       </c>
       <c r="G121" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H121" s="54" t="s">
         <v>41</v>
@@ -9178,16 +9178,16 @@
         <v>73</v>
       </c>
       <c r="L121" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M121" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O121" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>43</v>
@@ -9197,14 +9197,14 @@
         <v>O5_Vent_bath_EHA_AT</v>
       </c>
       <c r="R121" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S121" s="14" t="str">
         <f t="shared" si="5"/>
         <v>N2_Vent_bath_EHA_AT</v>
       </c>
       <c r="T121" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U121" s="30"/>
     </row>
@@ -9225,7 +9225,7 @@
         <v>49</v>
       </c>
       <c r="G122" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H122" s="54" t="s">
         <v>41</v>
@@ -9234,7 +9234,7 @@
         <v>52</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>54</v>
@@ -9249,7 +9249,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>43</v>
@@ -9281,20 +9281,20 @@
         <v>26</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G123" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H123" s="54"/>
       <c r="I123" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>39</v>
@@ -9303,7 +9303,7 @@
         <v>43439</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>44</v>
@@ -9340,20 +9340,20 @@
         <v>26</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G124" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H124" s="54"/>
       <c r="I124" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>39</v>
@@ -9362,7 +9362,7 @@
         <v>43439</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>44</v>
@@ -9399,20 +9399,20 @@
         <v>26</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G125" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H125" s="54"/>
       <c r="I125" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>39</v>
@@ -9421,7 +9421,7 @@
         <v>43439</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>44</v>
@@ -9461,7 +9461,7 @@
         <v>17</v>
       </c>
       <c r="G126" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H126" s="54" t="s">
         <v>41</v>
@@ -9476,16 +9476,16 @@
         <v>73</v>
       </c>
       <c r="L126" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M126" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O126" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>43</v>
@@ -9495,14 +9495,14 @@
         <v>O5_Vent_child1_EHA_AT</v>
       </c>
       <c r="R126" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S126" s="14" t="str">
         <f t="shared" si="5"/>
         <v>N2_Vent_child1_EHA_AT</v>
       </c>
       <c r="T126" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -9522,7 +9522,7 @@
         <v>49</v>
       </c>
       <c r="G127" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H127" s="54" t="s">
         <v>41</v>
@@ -9531,7 +9531,7 @@
         <v>52</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>54</v>
@@ -9546,7 +9546,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>43</v>
@@ -9583,7 +9583,7 @@
         <v>17</v>
       </c>
       <c r="G128" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H128" s="54" t="s">
         <v>41</v>
@@ -9598,16 +9598,16 @@
         <v>73</v>
       </c>
       <c r="L128" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M128" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O128" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>43</v>
@@ -9617,14 +9617,14 @@
         <v>O5_Vent_child1_SUA_AT</v>
       </c>
       <c r="R128" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S128" s="14" t="str">
         <f t="shared" si="5"/>
         <v>N2_Vent_child1_SUA_AT</v>
       </c>
       <c r="T128" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -9644,7 +9644,7 @@
         <v>49</v>
       </c>
       <c r="G129" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H129" s="54" t="s">
         <v>41</v>
@@ -9653,7 +9653,7 @@
         <v>52</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>54</v>
@@ -9668,7 +9668,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>43</v>
@@ -9702,7 +9702,7 @@
         <v>17</v>
       </c>
       <c r="G130" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H130" s="54" t="s">
         <v>41</v>
@@ -9717,16 +9717,16 @@
         <v>73</v>
       </c>
       <c r="L130" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M130" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O130" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O130" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>43</v>
@@ -9736,14 +9736,14 @@
         <v>O5_Vent_child2_EHA_AT</v>
       </c>
       <c r="R130" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S130" s="14" t="str">
         <f t="shared" si="5"/>
         <v>N2_Vent_child2_EHA_AT</v>
       </c>
       <c r="T130" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -9763,7 +9763,7 @@
         <v>49</v>
       </c>
       <c r="G131" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H131" s="54" t="s">
         <v>41</v>
@@ -9772,7 +9772,7 @@
         <v>52</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>54</v>
@@ -9787,7 +9787,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>43</v>
@@ -9824,7 +9824,7 @@
         <v>17</v>
       </c>
       <c r="G132" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H132" s="54" t="s">
         <v>41</v>
@@ -9839,16 +9839,16 @@
         <v>73</v>
       </c>
       <c r="L132" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M132" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O132" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>43</v>
@@ -9858,14 +9858,14 @@
         <v>O5_Vent_child2_SUA_AT</v>
       </c>
       <c r="R132" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S132" s="14" t="str">
         <f t="shared" si="5"/>
         <v>N2_Vent_child2_SUA_AT</v>
       </c>
       <c r="T132" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -9885,7 +9885,7 @@
         <v>49</v>
       </c>
       <c r="G133" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H133" s="54" t="s">
         <v>41</v>
@@ -9894,7 +9894,7 @@
         <v>52</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>54</v>
@@ -9909,7 +9909,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>43</v>
@@ -9934,29 +9934,29 @@
         <v>26</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G134" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H134" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I134" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="J134" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="J134" s="57" t="s">
-        <v>480</v>
-      </c>
       <c r="K134" s="57" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L134" s="32"/>
       <c r="M134" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -9968,7 +9968,7 @@
         <v>O5_Vent_CO2amb</v>
       </c>
       <c r="R134" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S134" s="14" t="str">
         <f t="shared" si="5"/>
@@ -9987,20 +9987,20 @@
         <v>26</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G135" s="53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H135" s="54"/>
       <c r="I135" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>39</v>
@@ -10009,7 +10009,7 @@
         <v>43439</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>44</v>
@@ -10064,16 +10064,16 @@
         <v>73</v>
       </c>
       <c r="L136" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M136" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O136" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>43</v>
@@ -10083,14 +10083,14 @@
         <v>O5_Vent_dining_EHA_AT</v>
       </c>
       <c r="R136" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S136" s="14" t="str">
         <f t="shared" si="5"/>
         <v>N2_Vent_dining_EHA_AT</v>
       </c>
       <c r="T136" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U136" s="30"/>
     </row>
@@ -10111,7 +10111,7 @@
         <v>49</v>
       </c>
       <c r="G137" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H137" s="54" t="s">
         <v>41</v>
@@ -10120,7 +10120,7 @@
         <v>52</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>54</v>
@@ -10135,7 +10135,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>43</v>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="U137" s="30"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" ht="28.5">
       <c r="C138" s="2" t="s">
         <v>26</v>
       </c>
@@ -10164,13 +10164,13 @@
         <v>26</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G138" s="53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H138" s="53" t="s">
         <v>47</v>
@@ -10214,7 +10214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" ht="28.5">
       <c r="C139" s="2" t="s">
         <v>26</v>
       </c>
@@ -10222,13 +10222,13 @@
         <v>26</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G139" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H139" s="53" t="s">
         <v>47</v>
@@ -10272,7 +10272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="28">
+    <row r="140" spans="1:21" ht="28.5">
       <c r="C140" s="2" t="s">
         <v>26</v>
       </c>
@@ -10280,13 +10280,13 @@
         <v>26</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G140" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H140" s="53" t="s">
         <v>47</v>
@@ -10362,16 +10362,16 @@
         <v>73</v>
       </c>
       <c r="L141" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M141" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O141" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N141" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O141" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>43</v>
@@ -10381,14 +10381,14 @@
         <v>O5_Vent_living_SUA_AT</v>
       </c>
       <c r="R141" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S141" s="14" t="str">
         <f t="shared" si="5"/>
         <v>N2_Vent_living_SUA_AT</v>
       </c>
       <c r="T141" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U141" s="30"/>
     </row>
@@ -10403,20 +10403,20 @@
         <v>26</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G142" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H142" s="54"/>
       <c r="I142" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>39</v>
@@ -10425,7 +10425,7 @@
         <v>43439</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>44</v>
@@ -10462,20 +10462,20 @@
         <v>26</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G143" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H143" s="54"/>
       <c r="I143" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J143" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>39</v>
@@ -10484,7 +10484,7 @@
         <v>43439</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>44</v>
@@ -10536,7 +10536,7 @@
         <v>52</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>54</v>
@@ -10551,7 +10551,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P144" s="2" t="s">
         <v>43</v>
@@ -10577,13 +10577,13 @@
         <v>26</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G145" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H145" s="53" t="s">
         <v>47</v>
@@ -10630,13 +10630,13 @@
         <v>26</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G146" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H146" s="54" t="s">
         <v>41</v>
@@ -10651,16 +10651,16 @@
         <v>73</v>
       </c>
       <c r="L146" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M146" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="O146" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O146" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>43</v>
@@ -10670,7 +10670,7 @@
         <v>O5_Vent_Tamb</v>
       </c>
       <c r="R146" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S146" s="14" t="str">
         <f t="shared" si="5"/>
@@ -10686,37 +10686,37 @@
         <v>26</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G147" s="53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H147" s="53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J147" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O147" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M147" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N147" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O147" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>43</v>
